--- a/展示情報（iOS版）.xlsx
+++ b/展示情報（iOS版）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwambocos/Documents/Programming/Projects/KaijoFes2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEA15BE-7BC5-8548-9418-169201B0F79B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDAFF26-E61C-E248-B612-33FD7FC091E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="348">
   <si>
     <t>１年１組</t>
   </si>
@@ -402,9 +402,6 @@
   </si>
   <si>
     <t>５号館３階</t>
-  </si>
-  <si>
-    <t>海城中高生物部／イマゼミ</t>
   </si>
   <si>
     <t>海城生による模擬授業〜生物の巻～</t>
@@ -1177,6 +1174,115 @@
 Violin:Guy
 Bass: red2002
 Drums:NSmagnets</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ミニステ部</t>
+  </si>
+  <si>
+    <t>弾き語り</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>海城軽音部の精鋭達によるミニステでの弾き語り企画！
+バンドでは見ることの出来ない彼らの違った1面を是非体験していって下さい。
+素晴らしい時間をお届けします。</t>
+  </si>
+  <si>
+    <t>クイズ、大喜利</t>
+  </si>
+  <si>
+    <t>海城高校文化祭笑いの祭典</t>
+  </si>
+  <si>
+    <t>イントロdeポン!</t>
+  </si>
+  <si>
+    <t>テレビ番組等でおなじみのイントロクイズが今年もミニステージで開催！
+一般参加も予定しているのでぜひ挑戦してみてください！</t>
+  </si>
+  <si>
+    <t>海城高校Mr、Msコンテスト</t>
+  </si>
+  <si>
+    <t>毎年恒例、ステージ企画の花形であるミスミスが、今年も開催されます！選りすぐりの美男美女(！？)を是非とも見に、ステージ前にお集まり下さい！！！</t>
+  </si>
+  <si>
+    <t>KaijoBINGO</t>
+  </si>
+  <si>
+    <t>今年もやります！！KaijoBINGO!!
+ご来場された方はどなたでも参加できます。ふるってご参加ください！！！</t>
+  </si>
+  <si>
+    <t>出張！しろくまの科学</t>
+  </si>
+  <si>
+    <t>文化祭１位の化学部がいろいろな実験を引き連れてミニステにもやってきた！泡の発生、色の変化いろいろな化学反応が君を待っている。科学館と二号館でやっている本隊の方もよろしくお願いします。ぜひ見てください。(注)安全には配慮しています(笑)。</t>
+  </si>
+  <si>
+    <t>漫才</t>
+  </si>
+  <si>
+    <t>海城生2人による漫才
+爆笑間違いなし！！</t>
+  </si>
+  <si>
+    <t>最強トリオ決定戦</t>
+  </si>
+  <si>
+    <t>いつもの3人ここに集結！？
+3人1組で様々なお題に挑戦します
+1番の団結力を見せるのは…</t>
+  </si>
+  <si>
+    <t>stage2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>stage3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>stage4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>stage5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>stage6</t>
+  </si>
+  <si>
+    <t>stage7</t>
+  </si>
+  <si>
+    <t>stage8</t>
+  </si>
+  <si>
+    <t>stage9</t>
+  </si>
+  <si>
+    <t>？？？？？</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>angelic demon</t>
+  </si>
+  <si>
+    <t>band17</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ロックスターの道をかけ上がるTATSUYA，そこに現れたhide，SRUMDANK松井に誘われangelic demonを結成した。しかし俺たちに妨害工作を仕掛ける岐阜ダイナマイト!誰であろうと俺たちのロードを阻むものは許さない‼️熱血のライブ　是非来てくれ‼️　　　　　　
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>海城中高生物部/イマゼミ</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1282,7 +1388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1320,8 +1426,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1642,8 +1754,8 @@
   </sheetPr>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="119" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="87" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2243,7 +2355,7 @@
       <c r="I14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="1"/>
@@ -2542,7 +2654,7 @@
       <c r="I21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="14" t="s">
         <v>8</v>
       </c>
       <c r="K21" s="1"/>
@@ -2561,31 +2673,33 @@
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>312</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="I22" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2601,32 +2715,31 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>6</v>
+      <c r="A23" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="J23" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K23" s="1"/>
@@ -2644,32 +2757,31 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4">
-        <v>2306</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>89</v>
+      <c r="A24" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="J24" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K24" s="1"/>
@@ -2687,34 +2799,31 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>95</v>
+      <c r="A25" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="J25" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K25" s="1"/>
@@ -2732,36 +2841,31 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="A26" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="4">
-        <v>2401</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>100</v>
+      <c r="D26" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="J26" s="4"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2777,34 +2881,31 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4">
-        <v>1201</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>22</v>
+      <c r="A27" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="J27" s="4"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2820,34 +2921,31 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="4">
-        <v>5302</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>108</v>
+      <c r="A28" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J28" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="J28" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K28" s="1"/>
@@ -2865,36 +2963,31 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="4">
-        <v>5301</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>108</v>
+      <c r="A29" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2910,34 +3003,31 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>95</v>
+      <c r="A30" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2954,31 +3044,29 @@
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" s="4">
-        <v>2406</v>
+        <v>83</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>7</v>
+        <v>314</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>8</v>
@@ -2999,26 +3087,26 @@
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4">
-        <v>2601</v>
+        <v>2306</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>7</v>
@@ -3042,28 +3130,28 @@
     </row>
     <row r="33" spans="1:23" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>126</v>
+        <v>92</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>7</v>
@@ -3087,26 +3175,28 @@
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4" t="s">
-        <v>130</v>
+        <v>98</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="4">
+        <v>2401</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>7</v>
@@ -3130,31 +3220,33 @@
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="4" t="s">
-        <v>133</v>
+      <c r="G35" s="4">
+        <v>1201</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J35" s="4"/>
+      <c r="J35" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -3171,26 +3263,28 @@
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4" t="s">
-        <v>136</v>
+        <v>106</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="4">
+        <v>5302</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>7</v>
@@ -3214,26 +3308,28 @@
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>122</v>
+        <v>347</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="4">
+        <v>5301</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>7</v>
@@ -3257,31 +3353,31 @@
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J38" s="15" t="s">
+      <c r="J38" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K38" s="1"/>
@@ -3300,28 +3396,28 @@
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>146</v>
+        <v>116</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="4">
+        <v>2406</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>7</v>
@@ -3345,26 +3441,26 @@
     </row>
     <row r="40" spans="1:23" ht="16.5" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="4" t="s">
-        <v>149</v>
+      <c r="G40" s="4">
+        <v>2601</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>7</v>
@@ -3388,23 +3484,25 @@
     </row>
     <row r="41" spans="1:23" ht="16.5" customHeight="1">
       <c r="A41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="G41" s="4" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>37</v>
@@ -3431,23 +3529,23 @@
     </row>
     <row r="42" spans="1:23" ht="16.5" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>37</v>
@@ -3474,23 +3572,23 @@
     </row>
     <row r="43" spans="1:23" ht="16.5" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>37</v>
@@ -3498,9 +3596,7 @@
       <c r="I43" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="J43" s="4"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -3517,25 +3613,23 @@
     </row>
     <row r="44" spans="1:23" ht="16.5" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>161</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>37</v>
@@ -3562,32 +3656,32 @@
     </row>
     <row r="45" spans="1:23" ht="16.5" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="F45" s="4"/>
-      <c r="G45" s="4">
-        <v>5401</v>
+      <c r="G45" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>316</v>
+      <c r="J45" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -3605,32 +3699,32 @@
     </row>
     <row r="46" spans="1:23" ht="16.5" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F46" s="4"/>
-      <c r="G46" s="4">
-        <v>2801</v>
+      <c r="G46" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J46" s="4" t="s">
-        <v>316</v>
+      <c r="J46" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -3648,23 +3742,25 @@
     </row>
     <row r="47" spans="1:23" ht="16.5" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="F47" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="G47" s="4" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>37</v>
@@ -3691,23 +3787,23 @@
     </row>
     <row r="48" spans="1:23" ht="16.5" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>37</v>
@@ -3715,7 +3811,9 @@
       <c r="I48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J48" s="4"/>
+      <c r="J48" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -3732,25 +3830,23 @@
     </row>
     <row r="49" spans="1:23" ht="16.5" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>176</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>37</v>
@@ -3777,23 +3873,23 @@
     </row>
     <row r="50" spans="1:23" ht="16.5" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>37</v>
@@ -3820,26 +3916,26 @@
     </row>
     <row r="51" spans="1:23" ht="16.5" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>7</v>
@@ -3863,28 +3959,28 @@
     </row>
     <row r="52" spans="1:23" ht="16.5" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>189</v>
+        <v>159</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>7</v>
@@ -3908,32 +4004,32 @@
     </row>
     <row r="53" spans="1:23" ht="16.5" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="F53" s="4"/>
-      <c r="G53" s="4" t="s">
-        <v>194</v>
+      <c r="G53" s="4">
+        <v>5401</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>8</v>
+        <v>315</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -3951,32 +4047,32 @@
     </row>
     <row r="54" spans="1:23" ht="16.5" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>195</v>
+        <v>121</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4">
-        <v>2708</v>
+        <v>2801</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>8</v>
+        <v>315</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -3994,26 +4090,26 @@
     </row>
     <row r="55" spans="1:23" ht="16.5" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>201</v>
+        <v>123</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>7</v>
@@ -4037,33 +4133,31 @@
     </row>
     <row r="56" spans="1:23" ht="16.5" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="J56" s="4"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -4080,26 +4174,28 @@
     </row>
     <row r="57" spans="1:23" ht="16.5" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4">
-        <v>2704</v>
+        <v>174</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>7</v>
@@ -4123,26 +4219,26 @@
     </row>
     <row r="58" spans="1:23" ht="16.5" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>212</v>
+        <v>123</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>7</v>
@@ -4165,34 +4261,31 @@
       <c r="W58" s="1"/>
     </row>
     <row r="59" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A59" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>198</v>
+      <c r="A59" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>343</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -4209,26 +4302,26 @@
     </row>
     <row r="60" spans="1:23" ht="16.5" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>222</v>
+        <v>2</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="4">
-        <v>2307</v>
+      <c r="G60" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>7</v>
@@ -4252,26 +4345,28 @@
     </row>
     <row r="61" spans="1:23" ht="16.5" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4">
-        <v>2301</v>
+        <v>187</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>7</v>
@@ -4295,26 +4390,26 @@
     </row>
     <row r="62" spans="1:23" ht="16.5" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="F62" s="4"/>
-      <c r="G62" s="4">
-        <v>2308</v>
+      <c r="G62" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>7</v>
@@ -4338,26 +4433,26 @@
     </row>
     <row r="63" spans="1:23" ht="16.5" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="F63" s="4"/>
-      <c r="G63" s="4" t="s">
-        <v>232</v>
+      <c r="G63" s="4">
+        <v>2708</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>7</v>
@@ -4381,28 +4476,26 @@
     </row>
     <row r="64" spans="1:23" ht="16.5" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G64" s="4">
-        <v>2304</v>
+        <v>200</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>7</v>
@@ -4426,28 +4519,26 @@
     </row>
     <row r="65" spans="1:23" ht="16.5" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G65" s="4">
-        <v>2305</v>
+        <v>204</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>7</v>
@@ -4471,10 +4562,10 @@
     </row>
     <row r="66" spans="1:23" ht="16.5" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>2</v>
@@ -4483,14 +4574,14 @@
         <v>3</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4">
-        <v>2403</v>
+        <v>2704</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>7</v>
@@ -4514,26 +4605,26 @@
     </row>
     <row r="67" spans="1:23" ht="16.5" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>7</v>
@@ -4557,10 +4648,10 @@
     </row>
     <row r="68" spans="1:23" ht="16.5" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>61</v>
@@ -4568,15 +4659,15 @@
       <c r="D68" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>248</v>
+      <c r="E68" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="F68" s="4"/>
-      <c r="G68" s="4">
-        <v>2706</v>
+      <c r="G68" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>7</v>
@@ -4600,28 +4691,26 @@
     </row>
     <row r="69" spans="1:23" ht="16.5" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="G69" s="9">
-        <v>2701</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>198</v>
+      <c r="E69" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4">
+        <v>2307</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>7</v>
@@ -4645,26 +4734,26 @@
     </row>
     <row r="70" spans="1:23" ht="16.5" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="F70" s="4"/>
-      <c r="G70" s="4" t="s">
-        <v>256</v>
+      <c r="G70" s="4">
+        <v>2301</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>7</v>
@@ -4688,26 +4777,26 @@
     </row>
     <row r="71" spans="1:23" ht="16.5" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="F71" s="4"/>
-      <c r="G71" s="4" t="s">
-        <v>260</v>
+      <c r="G71" s="4">
+        <v>2308</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>7</v>
@@ -4731,10 +4820,10 @@
     </row>
     <row r="72" spans="1:23" ht="16.5" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>14</v>
@@ -4743,14 +4832,14 @@
         <v>3</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="F72" s="4"/>
-      <c r="G72" s="4">
-        <v>5101</v>
+      <c r="G72" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>264</v>
+        <v>95</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>7</v>
@@ -4774,26 +4863,28 @@
     </row>
     <row r="73" spans="1:23" ht="16.5" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="F73" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>235</v>
+      </c>
       <c r="G73" s="4">
-        <v>2707</v>
+        <v>2304</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>7</v>
@@ -4817,26 +4908,28 @@
     </row>
     <row r="74" spans="1:23" ht="16.5" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>269</v>
+        <v>3</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4" t="s">
-        <v>269</v>
+        <v>237</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G74" s="4">
+        <v>2305</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>7</v>
@@ -4860,10 +4953,10 @@
     </row>
     <row r="75" spans="1:23" ht="16.5" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>2</v>
@@ -4872,14 +4965,14 @@
         <v>3</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="F75" s="4"/>
-      <c r="G75" s="4" t="s">
-        <v>275</v>
+      <c r="G75" s="4">
+        <v>2403</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>7</v>
@@ -4903,26 +4996,26 @@
     </row>
     <row r="76" spans="1:23" ht="16.5" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="F76" s="4"/>
-      <c r="G76" s="4">
-        <v>2602</v>
+      <c r="G76" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>7</v>
@@ -4946,28 +5039,26 @@
     </row>
     <row r="77" spans="1:23" ht="16.5" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>282</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="F77" s="4"/>
       <c r="G77" s="4">
-        <v>2405</v>
+        <v>2706</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>7</v>
@@ -4991,26 +5082,28 @@
     </row>
     <row r="78" spans="1:23" ht="16.5" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4">
-        <v>2302</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>89</v>
+        <v>250</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G78" s="9">
+        <v>2701</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>7</v>
@@ -5034,26 +5127,26 @@
     </row>
     <row r="79" spans="1:23" ht="16.5" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>7</v>
@@ -5077,28 +5170,26 @@
     </row>
     <row r="80" spans="1:23" ht="16.5" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>167</v>
+        <v>258</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>7</v>
@@ -5122,31 +5213,31 @@
     </row>
     <row r="81" spans="1:23" ht="16.5" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4">
-        <v>5202</v>
+        <v>5101</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J81" s="15" t="s">
+      <c r="J81" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K81" s="1"/>
@@ -5165,26 +5256,26 @@
     </row>
     <row r="82" spans="1:23" ht="16.5" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="F82" s="4"/>
-      <c r="G82" s="4" t="s">
-        <v>301</v>
+      <c r="G82" s="4">
+        <v>2707</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>7</v>
@@ -5208,26 +5299,26 @@
     </row>
     <row r="83" spans="1:23" ht="16.5" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>7</v>
@@ -5251,10 +5342,10 @@
     </row>
     <row r="84" spans="1:23" ht="15.75" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>2</v>
@@ -5263,14 +5354,14 @@
         <v>3</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="F84" s="4"/>
-      <c r="G84" s="4">
-        <v>2404</v>
+      <c r="G84" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>7</v>
@@ -5293,16 +5384,34 @@
       <c r="W84" s="1"/>
     </row>
     <row r="85" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="2"/>
+      <c r="A85" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4">
+        <v>2602</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
@@ -5318,16 +5427,36 @@
       <c r="W85" s="1"/>
     </row>
     <row r="86" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="2"/>
+      <c r="A86" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G86" s="4">
+        <v>2405</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
@@ -5343,16 +5472,34 @@
       <c r="W86" s="1"/>
     </row>
     <row r="87" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="2"/>
+      <c r="A87" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4">
+        <v>2302</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
@@ -5368,16 +5515,34 @@
       <c r="W87" s="1"/>
     </row>
     <row r="88" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="2"/>
+      <c r="A88" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
@@ -5393,16 +5558,36 @@
       <c r="W88" s="1"/>
     </row>
     <row r="89" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="2"/>
+      <c r="A89" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J89" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
@@ -5418,16 +5603,34 @@
       <c r="W89" s="1"/>
     </row>
     <row r="90" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="2"/>
+      <c r="A90" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4">
+        <v>5202</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J90" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
@@ -5443,16 +5646,34 @@
       <c r="W90" s="1"/>
     </row>
     <row r="91" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="2"/>
+      <c r="A91" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -5468,16 +5689,34 @@
       <c r="W91" s="1"/>
     </row>
     <row r="92" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="2"/>
+      <c r="A92" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -5493,16 +5732,34 @@
       <c r="W92" s="1"/>
     </row>
     <row r="93" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="2"/>
+      <c r="A93" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4">
+        <v>2404</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
@@ -13853,22 +14110,22 @@
       <c r="J1000" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J1000">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J93">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="F1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F25" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F26" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F31" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F33" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F39" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F44" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F52" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F64" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F65" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F77" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F34" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F39" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F41" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F47" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F52" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F61" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F73" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F74" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F86" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/展示情報（iOS版）.xlsx
+++ b/展示情報（iOS版）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwambocos/Documents/Programming/Projects/KaijoFes2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDAFF26-E61C-E248-B612-33FD7FC091E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398E0DEE-B7C3-3844-B5A7-7E8FF8874F73}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="348">
   <si>
     <t>１年１組</t>
   </si>
@@ -1293,7 +1293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1354,6 +1354,11 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1388,7 +1393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1434,6 +1439,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1754,8 +1762,8 @@
   </sheetPr>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="87" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="87" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3596,7 +3604,9 @@
       <c r="I43" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J43" s="4"/>
+      <c r="J43" s="18" t="s">
+        <v>8</v>
+      </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -4285,7 +4295,9 @@
       <c r="I59" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="J59" s="4"/>
+      <c r="J59" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>

--- a/展示情報（iOS版）.xlsx
+++ b/展示情報（iOS版）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwambocos/Documents/Programming/Projects/KaijoFes2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398E0DEE-B7C3-3844-B5A7-7E8FF8874F73}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15CBB9C-3C7A-DB44-A5EA-B6A22330AAC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1266,10 +1266,6 @@
     <t>stage9</t>
   </si>
   <si>
-    <t>？？？？？</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>angelic demon</t>
   </si>
   <si>
@@ -1283,6 +1279,10 @@
   </si>
   <si>
     <t>海城中高生物部/イマゼミ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>keion</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1762,8 +1762,8 @@
   </sheetPr>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="87" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="87" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>109</v>
@@ -3513,7 +3513,7 @@
         <v>126</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>7</v>
@@ -3556,7 +3556,7 @@
         <v>129</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>7</v>
@@ -3599,7 +3599,7 @@
         <v>132</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>7</v>
@@ -3642,7 +3642,7 @@
         <v>135</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>7</v>
@@ -3685,7 +3685,7 @@
         <v>138</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>7</v>
@@ -3728,7 +3728,7 @@
         <v>141</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>7</v>
@@ -3773,7 +3773,7 @@
         <v>145</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>7</v>
@@ -3816,7 +3816,7 @@
         <v>148</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>7</v>
@@ -3859,7 +3859,7 @@
         <v>151</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>7</v>
@@ -3902,7 +3902,7 @@
         <v>154</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>7</v>
@@ -3945,7 +3945,7 @@
         <v>157</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>164</v>
+        <v>347</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>7</v>
@@ -3990,7 +3990,7 @@
         <v>161</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>166</v>
+        <v>347</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>7</v>
@@ -4119,7 +4119,7 @@
         <v>169</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>7</v>
@@ -4162,7 +4162,7 @@
         <v>172</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>7</v>
@@ -4205,7 +4205,7 @@
         <v>176</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>7</v>
@@ -4248,7 +4248,7 @@
         <v>179</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>7</v>
@@ -4275,7 +4275,7 @@
         <v>167</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>87</v>
@@ -4284,13 +4284,13 @@
         <v>123</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>314</v>

--- a/展示情報（iOS版）.xlsx
+++ b/展示情報（iOS版）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwambocos/Documents/Programming/Projects/KaijoFes2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15CBB9C-3C7A-DB44-A5EA-B6A22330AAC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988368F7-2C2A-9745-AC26-1F4C4534CEB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="353">
   <si>
     <t>１年１組</t>
   </si>
@@ -1284,6 +1284,22 @@
   <si>
     <t>keion</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>VS文実</t>
+  </si>
+  <si>
+    <t>文化祭実行委員の意地とプライドをかけた戦いが、今、始まる。</t>
+  </si>
+  <si>
+    <t>stage10</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>月夜神社でお化け狩り</t>
+  </si>
+  <si>
+    <t>特殊能力測定の逆襲 EVOLUTION</t>
   </si>
 </sst>
 </file>
@@ -1357,6 +1373,7 @@
     <font>
       <sz val="10"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1760,10 +1777,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W1000"/>
+  <dimension ref="A1:W1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="87" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2172,7 +2189,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
@@ -2385,7 +2402,7 @@
         <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>352</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>2</v>
@@ -3051,34 +3068,31 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="A31" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>6</v>
+      <c r="D31" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="J31" s="4"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -3095,29 +3109,29 @@
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="4">
-        <v>2306</v>
+      <c r="G32" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>7</v>
+        <v>314</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>8</v>
@@ -3138,28 +3152,26 @@
     </row>
     <row r="33" spans="1:23" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4">
+        <v>2306</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>7</v>
@@ -3183,10 +3195,10 @@
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>61</v>
@@ -3195,16 +3207,16 @@
         <v>3</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="4">
-        <v>2401</v>
+        <v>93</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>7</v>
@@ -3228,10 +3240,10 @@
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>61</v>
@@ -3240,14 +3252,16 @@
         <v>3</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="G35" s="4">
-        <v>1201</v>
+        <v>2401</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>7</v>
@@ -3271,28 +3285,26 @@
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F36" s="4"/>
       <c r="G36" s="4">
-        <v>5302</v>
+        <v>1201</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>7</v>
@@ -3316,25 +3328,25 @@
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>346</v>
+        <v>104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>107</v>
       </c>
       <c r="G37" s="4">
-        <v>5301</v>
+        <v>5302</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>108</v>
@@ -3342,7 +3354,7 @@
       <c r="I37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J37" s="14" t="s">
+      <c r="J37" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K37" s="1"/>
@@ -3361,31 +3373,33 @@
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>111</v>
+        <v>346</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="4">
+        <v>5301</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="14" t="s">
         <v>8</v>
       </c>
       <c r="K38" s="1"/>
@@ -3404,28 +3418,26 @@
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="4">
-        <v>2406</v>
+        <v>112</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>7</v>
@@ -3447,12 +3459,12 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5" customHeight="1">
+    <row r="40" spans="1:23" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>2</v>
@@ -3461,14 +3473,16 @@
         <v>3</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="G40" s="4">
-        <v>2601</v>
+        <v>2406</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>7</v>
@@ -3492,28 +3506,26 @@
     </row>
     <row r="41" spans="1:23" ht="16.5" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4">
+        <v>2601</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>347</v>
+        <v>95</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>7</v>
@@ -3540,7 +3552,7 @@
         <v>121</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>87</v>
@@ -3549,11 +3561,13 @@
         <v>123</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="G42" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>347</v>
@@ -3583,7 +3597,7 @@
         <v>121</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>87</v>
@@ -3592,11 +3606,11 @@
         <v>123</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>347</v>
@@ -3604,7 +3618,7 @@
       <c r="I43" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J43" s="18" t="s">
+      <c r="J43" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K43" s="1"/>
@@ -3626,7 +3640,7 @@
         <v>121</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>87</v>
@@ -3635,11 +3649,11 @@
         <v>123</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>347</v>
@@ -3647,7 +3661,7 @@
       <c r="I44" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" s="18" t="s">
         <v>8</v>
       </c>
       <c r="K44" s="1"/>
@@ -3669,7 +3683,7 @@
         <v>121</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>87</v>
@@ -3678,11 +3692,11 @@
         <v>123</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>347</v>
@@ -3690,7 +3704,7 @@
       <c r="I45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J45" s="15" t="s">
+      <c r="J45" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K45" s="1"/>
@@ -3712,7 +3726,7 @@
         <v>121</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>87</v>
@@ -3721,11 +3735,11 @@
         <v>123</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>347</v>
@@ -3755,7 +3769,7 @@
         <v>121</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>87</v>
@@ -3764,13 +3778,11 @@
         <v>123</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>144</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>347</v>
@@ -3778,7 +3790,7 @@
       <c r="I47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="J47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="K47" s="1"/>
@@ -3800,7 +3812,7 @@
         <v>121</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>87</v>
@@ -3809,11 +3821,13 @@
         <v>123</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="G48" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>347</v>
@@ -3843,7 +3857,7 @@
         <v>121</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>87</v>
@@ -3852,11 +3866,11 @@
         <v>123</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>347</v>
@@ -3886,7 +3900,7 @@
         <v>121</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>87</v>
@@ -3895,11 +3909,11 @@
         <v>123</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>347</v>
@@ -3929,7 +3943,7 @@
         <v>121</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>87</v>
@@ -3938,11 +3952,11 @@
         <v>123</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>347</v>
@@ -3972,7 +3986,7 @@
         <v>121</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>87</v>
@@ -3981,13 +3995,11 @@
         <v>123</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>160</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>347</v>
@@ -4017,29 +4029,31 @@
         <v>121</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4">
-        <v>5401</v>
+        <v>159</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>164</v>
+        <v>347</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>315</v>
+        <v>8</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -4060,7 +4074,7 @@
         <v>121</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>87</v>
@@ -4073,10 +4087,10 @@
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4">
-        <v>2801</v>
+        <v>5401</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>7</v>
@@ -4100,32 +4114,32 @@
     </row>
     <row r="55" spans="1:23" ht="16.5" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>316</v>
+        <v>3</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="4" t="s">
-        <v>169</v>
+      <c r="G55" s="4">
+        <v>2801</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>347</v>
+        <v>166</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>8</v>
+        <v>315</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -4146,7 +4160,7 @@
         <v>167</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>87</v>
@@ -4154,12 +4168,12 @@
       <c r="D56" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>171</v>
+      <c r="E56" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>347</v>
@@ -4167,7 +4181,9 @@
       <c r="I56" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J56" s="4"/>
+      <c r="J56" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -4187,7 +4203,7 @@
         <v>167</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>87</v>
@@ -4196,13 +4212,11 @@
         <v>123</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>175</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>347</v>
@@ -4210,9 +4224,7 @@
       <c r="I57" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="J57" s="4"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -4232,7 +4244,7 @@
         <v>167</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>87</v>
@@ -4241,11 +4253,13 @@
         <v>123</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F58" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="G58" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>347</v>
@@ -4271,29 +4285,30 @@
       <c r="W58" s="1"/>
     </row>
     <row r="59" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C59" s="11" t="s">
+      <c r="B59" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E59" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>344</v>
+      <c r="E59" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>347</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>314</v>
+        <v>7</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>8</v>
@@ -4313,30 +4328,29 @@
       <c r="W59" s="1"/>
     </row>
     <row r="60" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A60" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4" t="s">
-        <v>182</v>
+      <c r="A60" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>184</v>
+        <v>347</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>7</v>
+        <v>314</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>8</v>
@@ -4357,28 +4371,26 @@
     </row>
     <row r="61" spans="1:23" ht="16.5" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>188</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="F61" s="4"/>
       <c r="G61" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>6</v>
+        <v>184</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>7</v>
@@ -4402,26 +4414,28 @@
     </row>
     <row r="62" spans="1:23" ht="16.5" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F62" s="4"/>
+        <v>187</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="G62" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>7</v>
@@ -4445,26 +4459,26 @@
     </row>
     <row r="63" spans="1:23" ht="16.5" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F63" s="4"/>
-      <c r="G63" s="4">
-        <v>2708</v>
+      <c r="G63" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>197</v>
+        <v>95</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>7</v>
@@ -4488,26 +4502,26 @@
     </row>
     <row r="64" spans="1:23" ht="16.5" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F64" s="4"/>
-      <c r="G64" s="4" t="s">
-        <v>201</v>
+      <c r="G64" s="4">
+        <v>2708</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>7</v>
@@ -4531,23 +4545,23 @@
     </row>
     <row r="65" spans="1:23" ht="16.5" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>6</v>
@@ -4574,26 +4588,26 @@
     </row>
     <row r="66" spans="1:23" ht="16.5" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F66" s="4"/>
-      <c r="G66" s="4">
-        <v>2704</v>
+      <c r="G66" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>7</v>
@@ -4617,26 +4631,26 @@
     </row>
     <row r="67" spans="1:23" ht="16.5" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>211</v>
+        <v>3</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F67" s="4"/>
-      <c r="G67" s="4" t="s">
-        <v>213</v>
+      <c r="G67" s="4">
+        <v>2704</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>7</v>
@@ -4660,26 +4674,26 @@
     </row>
     <row r="68" spans="1:23" ht="16.5" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>7</v>
@@ -4703,26 +4717,26 @@
     </row>
     <row r="69" spans="1:23" ht="16.5" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="13" t="s">
-        <v>221</v>
+      <c r="E69" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="F69" s="4"/>
-      <c r="G69" s="4">
-        <v>2307</v>
+      <c r="G69" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>7</v>
@@ -4746,23 +4760,23 @@
     </row>
     <row r="70" spans="1:23" ht="16.5" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>224</v>
+      <c r="E70" s="13" t="s">
+        <v>221</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4">
-        <v>2301</v>
+        <v>2307</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>89</v>
@@ -4789,23 +4803,23 @@
     </row>
     <row r="71" spans="1:23" ht="16.5" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4">
-        <v>2308</v>
+        <v>2301</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>89</v>
@@ -4832,26 +4846,26 @@
     </row>
     <row r="72" spans="1:23" ht="16.5" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F72" s="4"/>
-      <c r="G72" s="4" t="s">
-        <v>231</v>
+      <c r="G72" s="4">
+        <v>2308</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>7</v>
@@ -4875,28 +4889,26 @@
     </row>
     <row r="73" spans="1:23" ht="16.5" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G73" s="4">
-        <v>2304</v>
+        <v>230</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>7</v>
@@ -4923,7 +4935,7 @@
         <v>232</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>61</v>
@@ -4932,13 +4944,13 @@
         <v>3</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>235</v>
       </c>
       <c r="G74" s="4">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>89</v>
@@ -4965,26 +4977,28 @@
     </row>
     <row r="75" spans="1:23" ht="16.5" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F75" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>235</v>
+      </c>
       <c r="G75" s="4">
-        <v>2403</v>
+        <v>2305</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>7</v>
@@ -5008,26 +5022,26 @@
     </row>
     <row r="76" spans="1:23" ht="16.5" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F76" s="4"/>
-      <c r="G76" s="4" t="s">
-        <v>244</v>
+      <c r="G76" s="4">
+        <v>2403</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>7</v>
@@ -5051,10 +5065,10 @@
     </row>
     <row r="77" spans="1:23" ht="16.5" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>61</v>
@@ -5063,11 +5077,11 @@
         <v>3</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F77" s="4"/>
-      <c r="G77" s="4">
-        <v>2706</v>
+      <c r="G77" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>197</v>
@@ -5094,27 +5108,25 @@
     </row>
     <row r="78" spans="1:23" ht="16.5" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="G78" s="9">
-        <v>2701</v>
-      </c>
-      <c r="H78" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4">
+        <v>2706</v>
+      </c>
+      <c r="H78" s="4" t="s">
         <v>197</v>
       </c>
       <c r="I78" s="6" t="s">
@@ -5139,26 +5151,28 @@
     </row>
     <row r="79" spans="1:23" ht="16.5" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>211</v>
+        <v>3</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>214</v>
+        <v>250</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G79" s="9">
+        <v>2701</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>7</v>
@@ -5182,31 +5196,31 @@
     </row>
     <row r="80" spans="1:23" ht="16.5" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>68</v>
+        <v>211</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J80" s="14" t="s">
+      <c r="J80" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K80" s="1"/>
@@ -5225,31 +5239,31 @@
     </row>
     <row r="81" spans="1:23" ht="16.5" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F81" s="4"/>
-      <c r="G81" s="4">
-        <v>5101</v>
+      <c r="G81" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>263</v>
+        <v>71</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J81" s="4" t="s">
+      <c r="J81" s="14" t="s">
         <v>8</v>
       </c>
       <c r="K81" s="1"/>
@@ -5268,26 +5282,26 @@
     </row>
     <row r="82" spans="1:23" ht="16.5" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4">
-        <v>2707</v>
+        <v>5101</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>7</v>
@@ -5314,23 +5328,23 @@
         <v>264</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>268</v>
+        <v>3</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F83" s="4"/>
-      <c r="G83" s="4" t="s">
-        <v>268</v>
+      <c r="G83" s="4">
+        <v>2707</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>7</v>
@@ -5352,28 +5366,28 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="15.75" customHeight="1">
+    <row r="84" spans="1:23" ht="16.5" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>3</v>
+        <v>268</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>7</v>
@@ -5397,10 +5411,10 @@
     </row>
     <row r="85" spans="1:23" ht="15.75" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>2</v>
@@ -5409,14 +5423,14 @@
         <v>3</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F85" s="4"/>
-      <c r="G85" s="4">
-        <v>2602</v>
+      <c r="G85" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>7</v>
@@ -5440,28 +5454,26 @@
     </row>
     <row r="86" spans="1:23" ht="15.75" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>281</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="F86" s="4"/>
       <c r="G86" s="4">
-        <v>2405</v>
+        <v>2602</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>7</v>
@@ -5485,26 +5497,28 @@
     </row>
     <row r="87" spans="1:23" ht="15.75" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F87" s="4"/>
+        <v>280</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>281</v>
+      </c>
       <c r="G87" s="4">
-        <v>2302</v>
+        <v>2405</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>7</v>
@@ -5528,10 +5542,10 @@
     </row>
     <row r="88" spans="1:23" ht="15.75" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>61</v>
@@ -5540,14 +5554,14 @@
         <v>3</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F88" s="4"/>
-      <c r="G88" s="4" t="s">
-        <v>288</v>
+      <c r="G88" s="4">
+        <v>2302</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>7</v>
@@ -5571,10 +5585,10 @@
     </row>
     <row r="89" spans="1:23" ht="15.75" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>61</v>
@@ -5583,21 +5597,19 @@
         <v>3</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>166</v>
+        <v>287</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J89" s="15" t="s">
+      <c r="J89" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K89" s="1"/>
@@ -5616,26 +5628,28 @@
     </row>
     <row r="90" spans="1:23" ht="15.75" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4">
-        <v>5202</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>7</v>
@@ -5662,28 +5676,28 @@
         <v>294</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>211</v>
+        <v>3</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F91" s="4"/>
-      <c r="G91" s="4" t="s">
-        <v>300</v>
+      <c r="G91" s="4">
+        <v>5202</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>214</v>
+        <v>297</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="J91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="K91" s="1"/>
@@ -5702,10 +5716,10 @@
     </row>
     <row r="92" spans="1:23" ht="15.75" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>61</v>
@@ -5714,11 +5728,11 @@
         <v>211</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>214</v>
@@ -5745,26 +5759,26 @@
     </row>
     <row r="93" spans="1:23" ht="15.75" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F93" s="4"/>
-      <c r="G93" s="4">
-        <v>2404</v>
+      <c r="G93" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>7</v>
@@ -5787,16 +5801,34 @@
       <c r="W93" s="1"/>
     </row>
     <row r="94" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="2"/>
+      <c r="A94" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4">
+        <v>2404</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -10537,9 +10569,29 @@
       <c r="W283" s="1"/>
     </row>
     <row r="284" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
-      <c r="J284" s="3"/>
+      <c r="I284" s="1"/>
+      <c r="J284" s="2"/>
+      <c r="K284" s="1"/>
+      <c r="L284" s="1"/>
+      <c r="M284" s="1"/>
+      <c r="N284" s="1"/>
+      <c r="O284" s="1"/>
+      <c r="P284" s="1"/>
+      <c r="Q284" s="1"/>
+      <c r="R284" s="1"/>
+      <c r="S284" s="1"/>
+      <c r="T284" s="1"/>
+      <c r="U284" s="1"/>
+      <c r="V284" s="1"/>
+      <c r="W284" s="1"/>
     </row>
     <row r="285" spans="1:23" ht="15.75" customHeight="1">
       <c r="G285" s="1"/>
@@ -14121,23 +14173,28 @@
       <c r="H1000" s="1"/>
       <c r="J1000" s="3"/>
     </row>
+    <row r="1001" spans="7:10" ht="15.75" customHeight="1">
+      <c r="G1001" s="1"/>
+      <c r="H1001" s="1"/>
+      <c r="J1001" s="3"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J93">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J94">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="F1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F34" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F39" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F41" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F47" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F52" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F61" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F73" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F74" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F86" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F34" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F35" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F40" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F42" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F48" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F53" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F62" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F74" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F75" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F87" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/展示情報（iOS版）.xlsx
+++ b/展示情報（iOS版）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwambocos/Documents/Programming/Projects/KaijoFes2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988368F7-2C2A-9745-AC26-1F4C4534CEB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFA9E08-C513-754A-9250-764138DBD9E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="356">
   <si>
     <t>１年１組</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>２年２組</t>
-  </si>
-  <si>
-    <t>？？？？？</t>
   </si>
   <si>
     <t>４号館２階</t>
@@ -644,20 +641,6 @@
     <t>band13</t>
   </si>
   <si>
-    <t>baobab</t>
-  </si>
-  <si>
-    <t>Gt/Vc. 鶴貝
-Ba/Vc. 駒井
-Dr. 福島
-Key. 西村
-の4人組バンドです
-全員初心者なのでまだまだですがよろしくお願いします</t>
-  </si>
-  <si>
-    <t>band14</t>
-  </si>
-  <si>
     <t xml:space="preserve">RAVEN’z </t>
   </si>
   <si>
@@ -1204,13 +1187,7 @@
 一般参加も予定しているのでぜひ挑戦してみてください！</t>
   </si>
   <si>
-    <t>海城高校Mr、Msコンテスト</t>
-  </si>
-  <si>
     <t>毎年恒例、ステージ企画の花形であるミスミスが、今年も開催されます！選りすぐりの美男美女(！？)を是非とも見に、ステージ前にお集まり下さい！！！</t>
-  </si>
-  <si>
-    <t>KaijoBINGO</t>
   </si>
   <si>
     <t>今年もやります！！KaijoBINGO!!
@@ -1286,9 +1263,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>VS文実</t>
-  </si>
-  <si>
     <t>文化祭実行委員の意地とプライドをかけた戦いが、今、始まる。</t>
   </si>
   <si>
@@ -1300,6 +1274,67 @@
   </si>
   <si>
     <t>特殊能力測定の逆襲 EVOLUTION</t>
+  </si>
+  <si>
+    <t>ねぇねぇ、
+        お化け狩りしましょうよ。
+        月夜神社で待ってます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>昨年の人気企画「特殊能力測定」が強くなって帰ってきた! 4 号館 3 階で自分に秘められた能力を発掘しよう!</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>海城高校Mr、Msコンテスト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>KaijoBINGO</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>VS文実</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文化祭実行委員会</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ブンカサイ </t>
+    </rPh>
+    <rPh sb="3" eb="8">
+      <t xml:space="preserve">ジッコウイインカイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>模擬授業</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">モギジュギョウ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>learn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>classroom</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>普段の学校生活さながらの熱い授業を
+実際の教室で受けることが出来ます!
+受験生必見!
+土曜
+11:00 ~ 12:00 数学 (蔡先生)
+14:00 ~ 15:00 国語 (中村先生)
+日曜
+11:00 ~ 12:00 社会 (新貝先生)
+14:00 ~ 15:00 理科 (古田先生)
+※参加には整理券が必要です。
+整理券は各授業 30 分前から二号館 6 階 模擬授業教室前にて配布します。 整理券はなくなり次第、 配布を終了させていただきます。 一枚につき小学生親子一組が参加いただけます。 授業開始 10 分前から入室可能です。</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1309,7 +1344,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1364,18 +1399,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1410,7 +1433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1425,7 +1448,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1438,10 +1460,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1452,13 +1470,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1777,10 +1795,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W1001"/>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -1791,7 +1809,7 @@
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="6" width="33.33203125" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="42" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1820,7 +1838,7 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -1863,7 +1881,7 @@
       <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -1906,7 +1924,7 @@
       <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -1949,7 +1967,7 @@
       <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -1992,7 +2010,7 @@
       <c r="H5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -2035,7 +2053,7 @@
       <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -2078,7 +2096,7 @@
       <c r="H7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -2121,7 +2139,7 @@
       <c r="H8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -2141,7 +2159,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1">
+    <row r="9" spans="1:23" ht="15" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -2164,7 +2182,7 @@
       <c r="H9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="4" t="s">
@@ -2184,12 +2202,12 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1">
+    <row r="10" spans="1:23" ht="15" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
@@ -2197,20 +2215,22 @@
       <c r="D10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>37</v>
+      <c r="E10" s="8" t="s">
+        <v>346</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
         <v>4201</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2225,12 +2245,12 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1">
+    <row r="11" spans="1:23" ht="15" customHeight="1">
       <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
@@ -2239,16 +2259,16 @@
         <v>3</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
         <v>4202</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -2268,12 +2288,12 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1">
+    <row r="12" spans="1:23" ht="15" customHeight="1">
       <c r="A12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>2</v>
@@ -2282,16 +2302,16 @@
         <v>3</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
         <v>4203</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -2311,12 +2331,12 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1">
+    <row r="13" spans="1:23" ht="15" customHeight="1">
       <c r="A13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>2</v>
@@ -2325,16 +2345,16 @@
         <v>3</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <v>4204</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J13" s="4" t="s">
@@ -2354,12 +2374,12 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1">
+    <row r="14" spans="1:23" ht="15" customHeight="1">
       <c r="A14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>2</v>
@@ -2368,19 +2388,19 @@
         <v>3</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
         <v>4301</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="1"/>
@@ -2397,12 +2417,12 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1">
+    <row r="15" spans="1:23" ht="15" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>2</v>
@@ -2410,20 +2430,22 @@
       <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>37</v>
+      <c r="E15" s="8" t="s">
+        <v>347</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4">
         <v>4302</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2438,12 +2460,12 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:23" ht="15" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>2</v>
@@ -2452,16 +2474,16 @@
         <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4">
         <v>4304</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -2481,12 +2503,12 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1">
+    <row r="17" spans="1:23" ht="15" customHeight="1">
       <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>2</v>
@@ -2495,16 +2517,16 @@
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
         <v>4303</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="4" t="s">
@@ -2526,28 +2548,28 @@
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -2569,28 +2591,28 @@
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="4" t="s">
@@ -2612,28 +2634,28 @@
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J20" s="4" t="s">
@@ -2655,31 +2677,31 @@
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K21" s="1"/>
@@ -2697,32 +2719,32 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="A22" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
+        <v>2604</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K22" s="1"/>
@@ -2740,31 +2762,32 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A23" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="J23" s="12" t="s">
+      <c r="A23" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K23" s="1"/>
@@ -2782,31 +2805,32 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A24" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="H24" s="6" t="s">
+      <c r="A24" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="C24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K24" s="1"/>
@@ -2824,31 +2848,32 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="J25" s="12" t="s">
+      <c r="C25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J25" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K25" s="1"/>
@@ -2866,31 +2891,34 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A26" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="A26" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="J26" s="4"/>
+      <c r="C26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2906,29 +2934,30 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A27" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="A27" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>314</v>
+      <c r="B27" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="1"/>
@@ -2946,33 +2975,32 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A28" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="H28" s="6" t="s">
+      <c r="A28" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="B28" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J28" s="11"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2988,31 +3016,34 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A29" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="H29" s="6" t="s">
+      <c r="A29" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="J29" s="4"/>
+      <c r="B29" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -3028,31 +3059,34 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A30" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="A30" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="J30" s="4"/>
+      <c r="B30" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -3068,31 +3102,34 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A31" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="H31" s="6" t="s">
+      <c r="A31" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="J31" s="4"/>
+      <c r="B31" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -3108,34 +3145,32 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4" t="s">
-        <v>84</v>
+      <c r="A32" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9" t="s">
+        <v>343</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J32" s="4"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -3152,29 +3187,29 @@
     </row>
     <row r="33" spans="1:23" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="4">
-        <v>2306</v>
+      <c r="G33" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>8</v>
@@ -3195,30 +3230,28 @@
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4">
+        <v>2306</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I34" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J34" s="4" t="s">
@@ -3240,30 +3273,30 @@
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" s="4">
-        <v>2401</v>
+        <v>92</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I35" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J35" s="4" t="s">
@@ -3285,28 +3318,30 @@
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F36" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="G36" s="4">
-        <v>1201</v>
+        <v>2401</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J36" s="4" t="s">
@@ -3328,30 +3363,28 @@
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F37" s="4"/>
       <c r="G37" s="4">
-        <v>5302</v>
+        <v>1201</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J37" s="4" t="s">
@@ -3373,33 +3406,33 @@
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>346</v>
+        <v>103</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="4">
+        <v>5302</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="4">
-        <v>5301</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J38" s="14" t="s">
+      <c r="J38" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K38" s="1"/>
@@ -3418,31 +3451,33 @@
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>111</v>
+        <v>340</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="4">
+        <v>5301</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I39" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J39" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K39" s="1"/>
@@ -3461,30 +3496,28 @@
     </row>
     <row r="40" spans="1:23" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G40" s="4">
-        <v>2406</v>
+        <v>111</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I40" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J40" s="4" t="s">
@@ -3506,10 +3539,10 @@
     </row>
     <row r="41" spans="1:23" ht="16.5" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>2</v>
@@ -3518,16 +3551,18 @@
         <v>3</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F41" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="G41" s="4">
-        <v>2601</v>
+        <v>2406</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I41" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J41" s="4" t="s">
@@ -3549,30 +3584,28 @@
     </row>
     <row r="42" spans="1:23" ht="16.5" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4">
+        <v>2601</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I42" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J42" s="4" t="s">
@@ -3594,28 +3627,30 @@
     </row>
     <row r="43" spans="1:23" ht="16.5" customHeight="1">
       <c r="A43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="C43" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="G43" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I43" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J43" s="4" t="s">
@@ -3637,31 +3672,31 @@
     </row>
     <row r="44" spans="1:23" ht="16.5" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I44" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J44" s="18" t="s">
+      <c r="J44" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K44" s="1"/>
@@ -3680,31 +3715,31 @@
     </row>
     <row r="45" spans="1:23" ht="16.5" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I45" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J45" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K45" s="1"/>
@@ -3723,31 +3758,31 @@
     </row>
     <row r="46" spans="1:23" ht="16.5" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I46" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="J46" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K46" s="1"/>
@@ -3766,31 +3801,31 @@
     </row>
     <row r="47" spans="1:23" ht="16.5" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I47" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J47" s="15" t="s">
+      <c r="J47" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K47" s="1"/>
@@ -3809,33 +3844,31 @@
     </row>
     <row r="48" spans="1:23" ht="16.5" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>144</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I48" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="J48" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K48" s="1"/>
@@ -3854,28 +3887,30 @@
     </row>
     <row r="49" spans="1:23" ht="16.5" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F49" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="G49" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I49" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J49" s="4" t="s">
@@ -3897,28 +3932,28 @@
     </row>
     <row r="50" spans="1:23" ht="16.5" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I50" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J50" s="4" t="s">
@@ -3940,28 +3975,28 @@
     </row>
     <row r="51" spans="1:23" ht="16.5" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I51" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J51" s="4" t="s">
@@ -3983,28 +4018,28 @@
     </row>
     <row r="52" spans="1:23" ht="16.5" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I52" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J52" s="4" t="s">
@@ -4026,30 +4061,28 @@
     </row>
     <row r="53" spans="1:23" ht="16.5" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>160</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I53" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J53" s="4" t="s">
@@ -4071,32 +4104,34 @@
     </row>
     <row r="54" spans="1:23" ht="16.5" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4">
-        <v>5401</v>
+        <v>158</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I54" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>315</v>
+        <v>8</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -4114,32 +4149,32 @@
     </row>
     <row r="55" spans="1:23" ht="16.5" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4">
-        <v>2801</v>
+        <v>5401</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="I55" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I55" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -4157,32 +4192,32 @@
     </row>
     <row r="56" spans="1:23" ht="16.5" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>316</v>
+        <v>3</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="F56" s="4"/>
-      <c r="G56" s="4" t="s">
-        <v>169</v>
+      <c r="G56" s="4">
+        <v>2801</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I56" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>8</v>
+        <v>311</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -4200,31 +4235,33 @@
     </row>
     <row r="57" spans="1:23" ht="16.5" customHeight="1">
       <c r="A57" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="C57" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>171</v>
+        <v>122</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I57" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J57" s="4"/>
+      <c r="J57" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -4241,30 +4278,30 @@
     </row>
     <row r="58" spans="1:23" ht="16.5" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I58" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J58" s="4" t="s">
@@ -4286,28 +4323,28 @@
     </row>
     <row r="59" spans="1:23" ht="16.5" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>178</v>
+        <v>122</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I59" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J59" s="4" t="s">
@@ -4328,29 +4365,30 @@
       <c r="W59" s="1"/>
     </row>
     <row r="60" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A60" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>344</v>
+      <c r="A60" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9" t="s">
+        <v>338</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>314</v>
+        <v>341</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>8</v>
@@ -4371,28 +4409,28 @@
     </row>
     <row r="61" spans="1:23" ht="16.5" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I61" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J61" s="4" t="s">
@@ -4414,30 +4452,30 @@
     </row>
     <row r="62" spans="1:23" ht="16.5" customHeight="1">
       <c r="A62" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I62" s="6" t="s">
+      <c r="I62" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J62" s="4" t="s">
@@ -4459,28 +4497,28 @@
     </row>
     <row r="63" spans="1:23" ht="16.5" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I63" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J63" s="4" t="s">
@@ -4502,10 +4540,10 @@
     </row>
     <row r="64" spans="1:23" ht="16.5" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>2</v>
@@ -4514,16 +4552,16 @@
         <v>3</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4">
         <v>2708</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I64" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J64" s="4" t="s">
@@ -4545,28 +4583,28 @@
     </row>
     <row r="65" spans="1:23" ht="16.5" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I65" s="6" t="s">
+      <c r="I65" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J65" s="4" t="s">
@@ -4588,28 +4626,28 @@
     </row>
     <row r="66" spans="1:23" ht="16.5" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I66" s="6" t="s">
+      <c r="I66" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J66" s="4" t="s">
@@ -4631,10 +4669,10 @@
     </row>
     <row r="67" spans="1:23" ht="16.5" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>2</v>
@@ -4643,16 +4681,16 @@
         <v>3</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4">
         <v>2704</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I67" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J67" s="4" t="s">
@@ -4674,28 +4712,28 @@
     </row>
     <row r="68" spans="1:23" ht="16.5" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I68" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J68" s="4" t="s">
@@ -4717,28 +4755,28 @@
     </row>
     <row r="69" spans="1:23" ht="16.5" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="15" t="s">
-        <v>217</v>
+      <c r="E69" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I69" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J69" s="4" t="s">
@@ -4760,28 +4798,28 @@
     </row>
     <row r="70" spans="1:23" ht="16.5" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D70" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="13" t="s">
-        <v>221</v>
+      <c r="E70" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4">
         <v>2307</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I70" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J70" s="4" t="s">
@@ -4803,10 +4841,10 @@
     </row>
     <row r="71" spans="1:23" ht="16.5" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>14</v>
@@ -4815,16 +4853,16 @@
         <v>3</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4">
         <v>2301</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I71" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I71" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J71" s="4" t="s">
@@ -4846,10 +4884,10 @@
     </row>
     <row r="72" spans="1:23" ht="16.5" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>2</v>
@@ -4858,16 +4896,16 @@
         <v>3</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4">
         <v>2308</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I72" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J72" s="4" t="s">
@@ -4889,10 +4927,10 @@
     </row>
     <row r="73" spans="1:23" ht="16.5" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>14</v>
@@ -4901,16 +4939,16 @@
         <v>3</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I73" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I73" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J73" s="4" t="s">
@@ -4932,30 +4970,30 @@
     </row>
     <row r="74" spans="1:23" ht="16.5" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="G74" s="4">
         <v>2304</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I74" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I74" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J74" s="4" t="s">
@@ -4977,30 +5015,30 @@
     </row>
     <row r="75" spans="1:23" ht="16.5" customHeight="1">
       <c r="A75" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="C75" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="G75" s="4">
         <v>2305</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I75" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I75" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J75" s="4" t="s">
@@ -5022,10 +5060,10 @@
     </row>
     <row r="76" spans="1:23" ht="16.5" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>2</v>
@@ -5034,16 +5072,16 @@
         <v>3</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4">
         <v>2403</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I76" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I76" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J76" s="4" t="s">
@@ -5065,28 +5103,28 @@
     </row>
     <row r="77" spans="1:23" ht="16.5" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I77" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J77" s="4" t="s">
@@ -5108,28 +5146,28 @@
     </row>
     <row r="78" spans="1:23" ht="16.5" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4">
         <v>2706</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I78" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I78" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J78" s="4" t="s">
@@ -5151,10 +5189,10 @@
     </row>
     <row r="79" spans="1:23" ht="16.5" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>2</v>
@@ -5163,18 +5201,18 @@
         <v>3</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="G79" s="9">
+        <v>246</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G79" s="8">
         <v>2701</v>
       </c>
-      <c r="H79" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="I79" s="6" t="s">
+      <c r="H79" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J79" s="4" t="s">
@@ -5196,31 +5234,31 @@
     </row>
     <row r="80" spans="1:23" ht="16.5" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I80" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I80" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J80" s="4" t="s">
+      <c r="J80" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K80" s="1"/>
@@ -5239,31 +5277,31 @@
     </row>
     <row r="81" spans="1:23" ht="16.5" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I81" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J81" s="14" t="s">
+      <c r="J81" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K81" s="1"/>
@@ -5282,10 +5320,10 @@
     </row>
     <row r="82" spans="1:23" ht="16.5" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>14</v>
@@ -5294,16 +5332,16 @@
         <v>3</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <v>5101</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="I82" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I82" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J82" s="4" t="s">
@@ -5325,10 +5363,10 @@
     </row>
     <row r="83" spans="1:23" ht="16.5" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>2</v>
@@ -5337,16 +5375,16 @@
         <v>3</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <v>2707</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I83" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I83" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J83" s="4" t="s">
@@ -5366,30 +5404,30 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="16.5" customHeight="1">
+    <row r="84" spans="1:23" ht="15.75" customHeight="1">
       <c r="A84" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>268</v>
-      </c>
       <c r="E84" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="I84" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J84" s="4" t="s">
@@ -5411,10 +5449,10 @@
     </row>
     <row r="85" spans="1:23" ht="15.75" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>2</v>
@@ -5423,16 +5461,16 @@
         <v>3</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I85" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I85" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J85" s="4" t="s">
@@ -5454,10 +5492,10 @@
     </row>
     <row r="86" spans="1:23" ht="15.75" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>2</v>
@@ -5466,16 +5504,16 @@
         <v>3</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <v>2602</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I86" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J86" s="4" t="s">
@@ -5497,10 +5535,10 @@
     </row>
     <row r="87" spans="1:23" ht="15.75" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>14</v>
@@ -5509,18 +5547,18 @@
         <v>3</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G87" s="4">
         <v>2405</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I87" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J87" s="4" t="s">
@@ -5542,28 +5580,28 @@
     </row>
     <row r="88" spans="1:23" ht="15.75" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <v>2302</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I88" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I88" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J88" s="4" t="s">
@@ -5585,28 +5623,28 @@
     </row>
     <row r="89" spans="1:23" ht="15.75" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I89" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I89" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J89" s="4" t="s">
@@ -5628,33 +5666,33 @@
     </row>
     <row r="90" spans="1:23" ht="15.75" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="I90" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I90" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J90" s="15" t="s">
+      <c r="J90" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K90" s="1"/>
@@ -5673,10 +5711,10 @@
     </row>
     <row r="91" spans="1:23" ht="15.75" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>2</v>
@@ -5685,19 +5723,19 @@
         <v>3</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <v>5202</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="I91" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I91" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J91" s="15" t="s">
+      <c r="J91" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K91" s="1"/>
@@ -5716,28 +5754,28 @@
     </row>
     <row r="92" spans="1:23" ht="15.75" customHeight="1">
       <c r="A92" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>298</v>
-      </c>
       <c r="C92" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I92" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I92" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J92" s="4" t="s">
@@ -5759,28 +5797,28 @@
     </row>
     <row r="93" spans="1:23" ht="15.75" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I93" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I93" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J93" s="4" t="s">
@@ -5800,12 +5838,12 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" ht="15.75" customHeight="1">
+    <row r="94" spans="1:23" ht="14" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>2</v>
@@ -5814,16 +5852,16 @@
         <v>3</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <v>2404</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I94" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I94" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J94" s="4" t="s">
@@ -5843,17 +5881,17 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" ht="15.75" customHeight="1">
+    <row r="95" spans="1:23" ht="15" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
+      <c r="E95" s="15"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="2"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -5868,17 +5906,17 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" ht="15.75" customHeight="1">
+    <row r="96" spans="1:23" ht="15" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+      <c r="E96" s="15"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="2"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
@@ -5902,8 +5940,8 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="2"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -5923,12 +5961,12 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="E98" s="15"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="2"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
@@ -5948,12 +5986,12 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="E99" s="15"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="2"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
@@ -5973,12 +6011,12 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
+      <c r="E100" s="15"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="2"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
@@ -5998,12 +6036,12 @@
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
+      <c r="E101" s="15"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="2"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
@@ -6023,12 +6061,12 @@
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
+      <c r="E102" s="15"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="2"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
@@ -6048,12 +6086,12 @@
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
+      <c r="E103" s="15"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="2"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
@@ -10569,29 +10607,9 @@
       <c r="W283" s="1"/>
     </row>
     <row r="284" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
-      <c r="D284" s="1"/>
-      <c r="E284" s="1"/>
-      <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
-      <c r="I284" s="1"/>
-      <c r="J284" s="2"/>
-      <c r="K284" s="1"/>
-      <c r="L284" s="1"/>
-      <c r="M284" s="1"/>
-      <c r="N284" s="1"/>
-      <c r="O284" s="1"/>
-      <c r="P284" s="1"/>
-      <c r="Q284" s="1"/>
-      <c r="R284" s="1"/>
-      <c r="S284" s="1"/>
-      <c r="T284" s="1"/>
-      <c r="U284" s="1"/>
-      <c r="V284" s="1"/>
-      <c r="W284" s="1"/>
+      <c r="J284" s="3"/>
     </row>
     <row r="285" spans="1:23" ht="15.75" customHeight="1">
       <c r="G285" s="1"/>
@@ -14173,24 +14191,19 @@
       <c r="H1000" s="1"/>
       <c r="J1000" s="3"/>
     </row>
-    <row r="1001" spans="7:10" ht="15.75" customHeight="1">
-      <c r="G1001" s="1"/>
-      <c r="H1001" s="1"/>
-      <c r="J1001" s="3"/>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J94">
-    <sortCondition ref="A1"/>
+    <sortCondition ref="A94"/>
   </sortState>
   <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="F1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F34" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F35" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F40" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F42" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F48" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F53" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F35" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F36" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F41" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F43" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F49" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F54" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="F62" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="F74" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="F75" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>

--- a/展示情報（iOS版）.xlsx
+++ b/展示情報（iOS版）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwambocos/Documents/Programming/Projects/KaijoFes2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFA9E08-C513-754A-9250-764138DBD9E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ECFA5E-0683-E541-8E8B-2404A7276D04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="391">
   <si>
     <t>１年１組</t>
   </si>
@@ -1334,6 +1334,200 @@
 14:00 ~ 15:00 理科 (古田先生)
 ※参加には整理券が必要です。
 整理券は各授業 30 分前から二号館 6 階 模擬授業教室前にて配布します。 整理券はなくなり次第、 配布を終了させていただきます。 一枚につき小学生親子一組が参加いただけます。 授業開始 10 分前から入室可能です。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>５号館前</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">ゴウカン </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">マエ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>food9</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>水、お茶、ジュースなど、ヒンヤ
+リ冷えたペットボトル飲料を販売
+しています。
+熱中症予防にも最適です。喉が渇
+いたらぜひ、お立ち寄りください。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ペットボトル飲料</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>前庭</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゼンテイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>food8</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>祭りといえばやっぱり綿あめでしょ!
+今年も文実食品部がお届けします。
+甘くて美味しい綿あめを食べたら、
+きっとあなたもお祭り気分に?
+ぜひ、食べてみてください!</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>綿あめ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ワタアメ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>food7</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>天然の素材だけを使った美味しい アイスクリーム。やっぱりこの季節、 アイスが美味い!
+( 三号館工事の関係で、14:10 列終了、 14:30 販売終了となります。 予めご了承ください)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイスクリーム(トゥインクルジャック)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>前庭</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ゼンテイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>food6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>海城祭おなじみのケバブが今年も
+登場! ケバブを知ってる人も
+知らない人も、一度食べたら
+その味とボリュームに大満足する
+こと間違い無し!</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ペルシアン ドネル ケバブ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>２号館１階通路</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">ゴウカン </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">カイ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ツウロ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>food5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文実食品部がお送りする「たい焼き」
+です。食品部員は、夏休みの特訓を
+経て、たい焼き作りのプロになってお
+ります。食べておかないと損、いや、
+絶対に食べていって下さい!!
+スタッフ一同お待ちしております。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>たいやき</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>２号館８階</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>food4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>大人気のクレープが帰ってきた!
+他では食べることのできない
+その味をお試しあれ!</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クレープ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自販機前</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ジハンキマエ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>food3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>外はカリっと、中はジューシーな「ばくだん焼き」たこ焼き 8 個分 のボリュームで、その美味しさを ぎゅっと一つに凝縮!! 是非一度食べてみては?</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ばくだん焼き本舗</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>food2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>♪ピザーラお届け♪
+!!Open up your smile!!
+1 枚 1 枚手作りの、こだわりぬい た美味しいピザをいかがですか? ( 海城祭初のピザーラ上陸です! )</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ピザーラ </t>
+  </si>
+  <si>
+    <t>food1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>皆大好きケンタッキー!! 今年もケンタッキーのこだわりの 味をお楽しみ下さい!
+二号館 8 階にて 一同笑顔でお待ちしています</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ケンタッキーフライドチキン</t>
+  </si>
+  <si>
+    <t>food</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文化祭実行委員会</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ブンカサイ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ジッコウ </t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1797,8 +1991,8 @@
   </sheetPr>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="87" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5882,16 +6076,34 @@
       <c r="W94" s="1"/>
     </row>
     <row r="95" spans="1:23" ht="15" customHeight="1">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="15"/>
+      <c r="A95" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>387</v>
+      </c>
       <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
+      <c r="G95" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -5907,16 +6119,34 @@
       <c r="W95" s="1"/>
     </row>
     <row r="96" spans="1:23" ht="15" customHeight="1">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="15"/>
+      <c r="A96" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>384</v>
+      </c>
       <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
+      <c r="G96" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
@@ -5932,16 +6162,34 @@
       <c r="W96" s="1"/>
     </row>
     <row r="97" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
+      <c r="G97" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -5957,16 +6205,34 @@
       <c r="W97" s="1"/>
     </row>
     <row r="98" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="15"/>
+      <c r="A98" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>377</v>
+      </c>
       <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
+      <c r="G98" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
@@ -5982,16 +6248,34 @@
       <c r="W98" s="1"/>
     </row>
     <row r="99" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="15"/>
+      <c r="A99" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>373</v>
+      </c>
       <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
+      <c r="G99" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
@@ -6007,16 +6291,34 @@
       <c r="W99" s="1"/>
     </row>
     <row r="100" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="15"/>
+      <c r="A100" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>369</v>
+      </c>
       <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
+      <c r="G100" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
@@ -6032,16 +6334,34 @@
       <c r="W100" s="1"/>
     </row>
     <row r="101" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="15"/>
+      <c r="A101" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>365</v>
+      </c>
       <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
+      <c r="G101" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
@@ -6057,16 +6377,34 @@
       <c r="W101" s="1"/>
     </row>
     <row r="102" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="15"/>
+      <c r="A102" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
+      <c r="G102" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
@@ -6082,16 +6420,34 @@
       <c r="W102" s="1"/>
     </row>
     <row r="103" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="15"/>
+      <c r="A103" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>358</v>
+      </c>
       <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
+      <c r="G103" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>

--- a/展示情報（iOS版）.xlsx
+++ b/展示情報（iOS版）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwambocos/Documents/Programming/Projects/KaijoFes2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ECFA5E-0683-E541-8E8B-2404A7276D04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B7B31A-02F7-1945-81B2-2CD965F7EC89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="405">
   <si>
     <t>１年１組</t>
   </si>
@@ -1241,9 +1241,6 @@
   </si>
   <si>
     <t>stage9</t>
-  </si>
-  <si>
-    <t>angelic demon</t>
   </si>
   <si>
     <t>band17</t>
@@ -1527,6 +1524,94 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t xml:space="preserve">ジッコウ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>angelic demon</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パフォーマンス大会</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">タイカイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>今まで文化祭ではクラス展示や文化祭の裏方に回ってきた高一生たち。
+高校生になり、ステージの出場権を得た彼らの思いは、一つ。
+「ステージで輝きたい」
+その思いを胸に練習に励んできた
+全力のパフォーマンスをご覧あれ！</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>stage11</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>優秋祭</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ユウショウ </t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">アキ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">マツリ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hall</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hall5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>講堂</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウドウ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>海城祭のフィナーレを飾る優秋祭。
+個性豊かな海城生がパフォーマーとして海城祭の最後に華を添えます。
+16:30 より講堂で。是非お楽しみください！
+※14:00 より文実本部（１号館１階下駄箱裏）で優先入場券を配布いたします。先着順で無くなり次第配布終了となりますのでお早めにどうぞ！
+もちろん優先入場券をお持ちでない方も入場できますので、16:00 より講堂からできる列にお並びください。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サバイバルゲーム</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>今年のアリーナはサバイバルゲーム！文化祭実行委員会が主催する初のイベント、是非お越しください！
+※土曜日のみの開催となります。
+　日曜日はアリーナのタイムテーブルページをご覧ください</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>expr</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>arena</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>arena4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アリーナ２階</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">カイ </t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1989,10 +2074,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W1000"/>
+  <dimension ref="A1:W1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="87" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2401,7 +2486,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
@@ -2410,7 +2495,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
@@ -2616,7 +2701,7 @@
         <v>51</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>2</v>
@@ -2625,7 +2710,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4">
@@ -2914,19 +2999,19 @@
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="8" t="s">
         <v>354</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>355</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
@@ -3132,7 +3217,7 @@
         <v>313</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>60</v>
@@ -3173,7 +3258,7 @@
         <v>313</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>2</v>
@@ -3343,7 +3428,7 @@
         <v>313</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>60</v>
@@ -3352,11 +3437,11 @@
         <v>315</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>309</v>
@@ -3645,7 +3730,7 @@
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>108</v>
@@ -3842,7 +3927,7 @@
         <v>125</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>7</v>
@@ -3885,7 +3970,7 @@
         <v>128</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>7</v>
@@ -3928,7 +4013,7 @@
         <v>131</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>7</v>
@@ -3971,7 +4056,7 @@
         <v>134</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>7</v>
@@ -4014,7 +4099,7 @@
         <v>137</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>7</v>
@@ -4057,7 +4142,7 @@
         <v>140</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>7</v>
@@ -4102,7 +4187,7 @@
         <v>144</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>7</v>
@@ -4145,7 +4230,7 @@
         <v>147</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>7</v>
@@ -4188,7 +4273,7 @@
         <v>150</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>7</v>
@@ -4231,7 +4316,7 @@
         <v>153</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>7</v>
@@ -4274,7 +4359,7 @@
         <v>156</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>7</v>
@@ -4319,7 +4404,7 @@
         <v>160</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>7</v>
@@ -4448,7 +4533,7 @@
         <v>168</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>7</v>
@@ -4493,7 +4578,7 @@
         <v>172</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>7</v>
@@ -4536,7 +4621,7 @@
         <v>175</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>7</v>
@@ -4563,7 +4648,7 @@
         <v>166</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>86</v>
@@ -4572,14 +4657,14 @@
         <v>122</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>310</v>
@@ -6077,26 +6162,26 @@
     </row>
     <row r="95" spans="1:23" ht="15" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="D95" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>7</v>
@@ -6120,26 +6205,26 @@
     </row>
     <row r="96" spans="1:23" ht="15" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>7</v>
@@ -6163,26 +6248,26 @@
     </row>
     <row r="97" spans="1:23" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>7</v>
@@ -6206,26 +6291,26 @@
     </row>
     <row r="98" spans="1:23" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I98" s="4" t="s">
         <v>7</v>
@@ -6249,26 +6334,26 @@
     </row>
     <row r="99" spans="1:23" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I99" s="4" t="s">
         <v>7</v>
@@ -6292,26 +6377,26 @@
     </row>
     <row r="100" spans="1:23" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I100" s="4" t="s">
         <v>7</v>
@@ -6335,26 +6420,26 @@
     </row>
     <row r="101" spans="1:23" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I101" s="4" t="s">
         <v>7</v>
@@ -6378,26 +6463,26 @@
     </row>
     <row r="102" spans="1:23" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>7</v>
@@ -6421,26 +6506,26 @@
     </row>
     <row r="103" spans="1:23" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I103" s="4" t="s">
         <v>7</v>
@@ -6463,15 +6548,31 @@
       <c r="W103" s="1"/>
     </row>
     <row r="104" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
+      <c r="A104" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>392</v>
+      </c>
       <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
+      <c r="G104" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="J104" s="2"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -6488,15 +6589,31 @@
       <c r="W104" s="1"/>
     </row>
     <row r="105" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
+      <c r="A105" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>400</v>
+      </c>
       <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
+      <c r="G105" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="J105" s="2"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
@@ -6513,15 +6630,31 @@
       <c r="W105" s="1"/>
     </row>
     <row r="106" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
+      <c r="A106" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>398</v>
+      </c>
       <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
+      <c r="G106" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="J106" s="2"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -10963,9 +11096,29 @@
       <c r="W283" s="1"/>
     </row>
     <row r="284" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
-      <c r="J284" s="3"/>
+      <c r="I284" s="1"/>
+      <c r="J284" s="2"/>
+      <c r="K284" s="1"/>
+      <c r="L284" s="1"/>
+      <c r="M284" s="1"/>
+      <c r="N284" s="1"/>
+      <c r="O284" s="1"/>
+      <c r="P284" s="1"/>
+      <c r="Q284" s="1"/>
+      <c r="R284" s="1"/>
+      <c r="S284" s="1"/>
+      <c r="T284" s="1"/>
+      <c r="U284" s="1"/>
+      <c r="V284" s="1"/>
+      <c r="W284" s="1"/>
     </row>
     <row r="285" spans="1:23" ht="15.75" customHeight="1">
       <c r="G285" s="1"/>
@@ -14546,6 +14699,11 @@
       <c r="G1000" s="1"/>
       <c r="H1000" s="1"/>
       <c r="J1000" s="3"/>
+    </row>
+    <row r="1001" spans="7:10" ht="15.75" customHeight="1">
+      <c r="G1001" s="1"/>
+      <c r="H1001" s="1"/>
+      <c r="J1001" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J94">

--- a/展示情報（iOS版）.xlsx
+++ b/展示情報（iOS版）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwambocos/Documents/Programming/Projects/KaijoFes2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B7B31A-02F7-1945-81B2-2CD965F7EC89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E56F7E5-691F-5B4E-9DE7-06423F8A7252}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="405">
   <si>
     <t>１年１組</t>
   </si>
@@ -1623,7 +1623,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1678,6 +1678,11 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1712,7 +1717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1756,6 +1761,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2077,7 +2085,7 @@
   <dimension ref="A1:W1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3238,7 +3246,9 @@
       <c r="I27" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="J27" s="4"/>
+      <c r="J27" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -3279,7 +3289,9 @@
       <c r="I28" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="J28" s="11"/>
+      <c r="J28" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -3449,7 +3461,9 @@
       <c r="I32" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="J32" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -6573,7 +6587,9 @@
       <c r="I104" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J104" s="2"/>
+      <c r="J104" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
@@ -6614,7 +6630,9 @@
       <c r="I105" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J105" s="2"/>
+      <c r="J105" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
@@ -6655,7 +6673,9 @@
       <c r="I106" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J106" s="2"/>
+      <c r="J106" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>

--- a/展示情報（iOS版）.xlsx
+++ b/展示情報（iOS版）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwambocos/Documents/Programming/Projects/KaijoFes2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E56F7E5-691F-5B4E-9DE7-06423F8A7252}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0802C8F-93CA-E049-B93E-13FB1E7E32F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="410">
   <si>
     <t>１年１組</t>
   </si>
@@ -1610,6 +1610,36 @@
   </si>
   <si>
     <t>アリーナ２階</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">カイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>卓球部</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">タッキュウブ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>チャレンジピンポン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>チョーレーーイ！！！
+卓球の掛け声に隠された真実とは？恐ろしい陰謀が今、解き明かされる！(嘘です)
+アリーナ3階にチャレンジピンポン登場！
+巧みなラケット捌きでポイントをゲットし、景品をその手に勝ち取れ！
+君が未来の張本だ！！</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>arena5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アリーナ３階</t>
     <rPh sb="5" eb="6">
       <t xml:space="preserve">カイ </t>
     </rPh>
@@ -2084,8 +2114,8 @@
   </sheetPr>
   <dimension ref="A1:W1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="J106" sqref="J106"/>
+    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6691,16 +6721,34 @@
       <c r="W106" s="1"/>
     </row>
     <row r="107" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
+      <c r="A107" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>407</v>
+      </c>
       <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="2"/>
+      <c r="G107" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J107" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>

--- a/展示情報（iOS版）.xlsx
+++ b/展示情報（iOS版）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwambocos/Documents/Programming/Projects/KaijoFes2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0802C8F-93CA-E049-B93E-13FB1E7E32F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002C61B8-1580-2A49-9A1E-DFA5C75DEF7B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,14 +214,6 @@
     <t>クイズ、はじめました</t>
   </si>
   <si>
-    <t xml:space="preserve">「海城クイズ研究同好会...？聞き覚えが無いな...」と思われた方。
-そう、実はまだ発足一年目の部活なんです。
-今年が初めての文化祭、出来立てほやほやのクイズをお楽しみください。
-開催場所：二号館四階3-4
-参加型クイズとペーパークイズの二つを用意しています。是非お越しください。
-</t>
-  </si>
-  <si>
     <t>テニス部</t>
   </si>
   <si>
@@ -1645,6 +1637,21 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t xml:space="preserve">「海城クイズ研究同好会...？聞き覚えが無いな...」と思われた方。
+そう、実はまだ発足一年目の部活なんです。
+今年が初めての文化祭、出来立てほやほやのクイズをお楽しみください。
+開催場所：４号館３階
+参加型クイズとペーパークイズの二つを用意しています。是非お越しください。
+</t>
+    <rPh sb="96" eb="98">
+      <t xml:space="preserve">ゴウカン </t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t xml:space="preserve">カイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1653,7 +1660,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1707,11 +1714,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="游ゴシック"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1789,11 +1791,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2114,8 +2114,8 @@
   </sheetPr>
   <dimension ref="A1:W1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="87" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2524,7 +2524,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
@@ -2533,7 +2533,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
@@ -2739,7 +2739,7 @@
         <v>51</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>2</v>
@@ -2748,7 +2748,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4">
@@ -2833,8 +2833,8 @@
       <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>57</v>
+      <c r="E17" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
@@ -2865,26 +2865,26 @@
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>7</v>
@@ -2908,26 +2908,26 @@
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>7</v>
@@ -2951,26 +2951,26 @@
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>7</v>
@@ -2994,26 +2994,26 @@
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>7</v>
@@ -3037,29 +3037,29 @@
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>354</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
         <v>2604</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>8</v>
@@ -3080,29 +3080,29 @@
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="9" t="s">
         <v>306</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>307</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>8</v>
@@ -3123,29 +3123,29 @@
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1">
       <c r="A24" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="E24" s="13" t="s">
         <v>315</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>316</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H24" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>8</v>
@@ -3166,29 +3166,29 @@
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>317</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>318</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>8</v>
@@ -3209,29 +3209,29 @@
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H26" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>8</v>
@@ -3252,31 +3252,31 @@
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H27" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K27" s="1"/>
@@ -3295,31 +3295,31 @@
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H28" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="J28" s="16" t="s">
+      <c r="J28" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K28" s="1"/>
@@ -3338,29 +3338,29 @@
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H29" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>8</v>
@@ -3381,29 +3381,29 @@
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>325</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>326</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H30" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="J30" s="11" t="s">
         <v>8</v>
@@ -3424,29 +3424,29 @@
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>327</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>328</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H31" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>8</v>
@@ -3467,29 +3467,29 @@
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H32" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>8</v>
@@ -3510,29 +3510,29 @@
     </row>
     <row r="33" spans="1:23" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>8</v>
@@ -3553,26 +3553,26 @@
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4">
         <v>2306</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>7</v>
@@ -3596,28 +3596,28 @@
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="C35" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>7</v>
@@ -3641,28 +3641,28 @@
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="C36" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="G36" s="4">
         <v>2401</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>7</v>
@@ -3686,19 +3686,19 @@
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="C37" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4">
@@ -3729,10 +3729,10 @@
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>14</v>
@@ -3741,16 +3741,16 @@
         <v>3</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="G38" s="4">
         <v>5302</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>7</v>
@@ -3774,10 +3774,10 @@
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>2</v>
@@ -3786,16 +3786,16 @@
         <v>3</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G39" s="4">
         <v>5301</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>7</v>
@@ -3819,10 +3819,10 @@
     </row>
     <row r="40" spans="1:23" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>14</v>
@@ -3831,14 +3831,14 @@
         <v>3</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>7</v>
@@ -3862,10 +3862,10 @@
     </row>
     <row r="41" spans="1:23" ht="16.5" customHeight="1">
       <c r="A41" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>2</v>
@@ -3874,16 +3874,16 @@
         <v>3</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="G41" s="4">
         <v>2406</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>7</v>
@@ -3907,10 +3907,10 @@
     </row>
     <row r="42" spans="1:23" ht="16.5" customHeight="1">
       <c r="A42" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>2</v>
@@ -3919,14 +3919,14 @@
         <v>3</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <v>2601</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>7</v>
@@ -3950,28 +3950,28 @@
     </row>
     <row r="43" spans="1:23" ht="16.5" customHeight="1">
       <c r="A43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="H43" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>7</v>
@@ -3995,26 +3995,26 @@
     </row>
     <row r="44" spans="1:23" ht="16.5" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>7</v>
@@ -4038,26 +4038,26 @@
     </row>
     <row r="45" spans="1:23" ht="16.5" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>7</v>
@@ -4081,26 +4081,26 @@
     </row>
     <row r="46" spans="1:23" ht="16.5" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>7</v>
@@ -4124,26 +4124,26 @@
     </row>
     <row r="47" spans="1:23" ht="16.5" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>7</v>
@@ -4167,26 +4167,26 @@
     </row>
     <row r="48" spans="1:23" ht="16.5" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>7</v>
@@ -4210,28 +4210,28 @@
     </row>
     <row r="49" spans="1:23" ht="16.5" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="H49" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>7</v>
@@ -4255,26 +4255,26 @@
     </row>
     <row r="50" spans="1:23" ht="16.5" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>7</v>
@@ -4298,26 +4298,26 @@
     </row>
     <row r="51" spans="1:23" ht="16.5" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>7</v>
@@ -4341,26 +4341,26 @@
     </row>
     <row r="52" spans="1:23" ht="16.5" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>7</v>
@@ -4384,26 +4384,26 @@
     </row>
     <row r="53" spans="1:23" ht="16.5" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>7</v>
@@ -4427,28 +4427,28 @@
     </row>
     <row r="54" spans="1:23" ht="16.5" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="4" t="s">
+      <c r="F54" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="G54" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="H54" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>7</v>
@@ -4472,32 +4472,32 @@
     </row>
     <row r="55" spans="1:23" ht="16.5" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4">
         <v>5401</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -4515,32 +4515,32 @@
     </row>
     <row r="56" spans="1:23" ht="16.5" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4">
         <v>2801</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -4558,26 +4558,26 @@
     </row>
     <row r="57" spans="1:23" ht="16.5" customHeight="1">
       <c r="A57" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="C57" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>7</v>
@@ -4601,28 +4601,28 @@
     </row>
     <row r="58" spans="1:23" ht="16.5" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E58" s="4" t="s">
+      <c r="F58" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="G58" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="H58" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>7</v>
@@ -4646,26 +4646,26 @@
     </row>
     <row r="59" spans="1:23" ht="16.5" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>174</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>7</v>
@@ -4689,29 +4689,29 @@
     </row>
     <row r="60" spans="1:23" ht="16.5" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>8</v>
@@ -4732,26 +4732,26 @@
     </row>
     <row r="61" spans="1:23" ht="16.5" customHeight="1">
       <c r="A61" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>7</v>
@@ -4775,25 +4775,25 @@
     </row>
     <row r="62" spans="1:23" ht="16.5" customHeight="1">
       <c r="A62" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="C62" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E62" s="4" t="s">
+      <c r="F62" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="G62" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>6</v>
@@ -4820,26 +4820,26 @@
     </row>
     <row r="63" spans="1:23" ht="16.5" customHeight="1">
       <c r="A63" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="C63" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>7</v>
@@ -4863,10 +4863,10 @@
     </row>
     <row r="64" spans="1:23" ht="16.5" customHeight="1">
       <c r="A64" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>2</v>
@@ -4875,14 +4875,14 @@
         <v>3</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4">
         <v>2708</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>7</v>
@@ -4906,23 +4906,23 @@
     </row>
     <row r="65" spans="1:23" ht="16.5" customHeight="1">
       <c r="A65" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="C65" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>6</v>
@@ -4949,23 +4949,23 @@
     </row>
     <row r="66" spans="1:23" ht="16.5" customHeight="1">
       <c r="A66" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="C66" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>6</v>
@@ -4992,10 +4992,10 @@
     </row>
     <row r="67" spans="1:23" ht="16.5" customHeight="1">
       <c r="A67" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>2</v>
@@ -5004,14 +5004,14 @@
         <v>3</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4">
         <v>2704</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>7</v>
@@ -5035,26 +5035,26 @@
     </row>
     <row r="68" spans="1:23" ht="16.5" customHeight="1">
       <c r="A68" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>7</v>
@@ -5078,26 +5078,26 @@
     </row>
     <row r="69" spans="1:23" ht="16.5" customHeight="1">
       <c r="A69" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="C69" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>7</v>
@@ -5121,26 +5121,26 @@
     </row>
     <row r="70" spans="1:23" ht="16.5" customHeight="1">
       <c r="A70" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="C70" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4">
         <v>2307</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>7</v>
@@ -5164,10 +5164,10 @@
     </row>
     <row r="71" spans="1:23" ht="16.5" customHeight="1">
       <c r="A71" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>14</v>
@@ -5176,14 +5176,14 @@
         <v>3</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4">
         <v>2301</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>7</v>
@@ -5207,10 +5207,10 @@
     </row>
     <row r="72" spans="1:23" ht="16.5" customHeight="1">
       <c r="A72" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>2</v>
@@ -5219,14 +5219,14 @@
         <v>3</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4">
         <v>2308</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>7</v>
@@ -5250,10 +5250,10 @@
     </row>
     <row r="73" spans="1:23" ht="16.5" customHeight="1">
       <c r="A73" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>14</v>
@@ -5262,14 +5262,14 @@
         <v>3</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>7</v>
@@ -5293,28 +5293,28 @@
     </row>
     <row r="74" spans="1:23" ht="16.5" customHeight="1">
       <c r="A74" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>229</v>
-      </c>
       <c r="C74" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E74" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="G74" s="4">
         <v>2304</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>7</v>
@@ -5338,28 +5338,28 @@
     </row>
     <row r="75" spans="1:23" ht="16.5" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G75" s="4">
         <v>2305</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>7</v>
@@ -5383,10 +5383,10 @@
     </row>
     <row r="76" spans="1:23" ht="16.5" customHeight="1">
       <c r="A76" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>2</v>
@@ -5395,14 +5395,14 @@
         <v>3</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4">
         <v>2403</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>7</v>
@@ -5426,26 +5426,26 @@
     </row>
     <row r="77" spans="1:23" ht="16.5" customHeight="1">
       <c r="A77" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="C77" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>7</v>
@@ -5469,26 +5469,26 @@
     </row>
     <row r="78" spans="1:23" ht="16.5" customHeight="1">
       <c r="A78" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>242</v>
-      </c>
       <c r="C78" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4">
         <v>2706</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>7</v>
@@ -5512,10 +5512,10 @@
     </row>
     <row r="79" spans="1:23" ht="16.5" customHeight="1">
       <c r="A79" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>2</v>
@@ -5524,16 +5524,16 @@
         <v>3</v>
       </c>
       <c r="E79" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="G79" s="8">
         <v>2701</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>7</v>
@@ -5557,26 +5557,26 @@
     </row>
     <row r="80" spans="1:23" ht="16.5" customHeight="1">
       <c r="A80" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="C80" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>7</v>
@@ -5600,26 +5600,26 @@
     </row>
     <row r="81" spans="1:23" ht="16.5" customHeight="1">
       <c r="A81" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="C81" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>7</v>
@@ -5643,10 +5643,10 @@
     </row>
     <row r="82" spans="1:23" ht="16.5" customHeight="1">
       <c r="A82" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>257</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>14</v>
@@ -5655,14 +5655,14 @@
         <v>3</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <v>5101</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>7</v>
@@ -5686,10 +5686,10 @@
     </row>
     <row r="83" spans="1:23" ht="16.5" customHeight="1">
       <c r="A83" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>2</v>
@@ -5698,14 +5698,14 @@
         <v>3</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <v>2707</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>7</v>
@@ -5729,26 +5729,26 @@
     </row>
     <row r="84" spans="1:23" ht="15.75" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D84" s="4" t="s">
+      <c r="E84" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>7</v>
@@ -5772,10 +5772,10 @@
     </row>
     <row r="85" spans="1:23" ht="15.75" customHeight="1">
       <c r="A85" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>2</v>
@@ -5784,14 +5784,14 @@
         <v>3</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>7</v>
@@ -5815,10 +5815,10 @@
     </row>
     <row r="86" spans="1:23" ht="15.75" customHeight="1">
       <c r="A86" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>2</v>
@@ -5827,14 +5827,14 @@
         <v>3</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <v>2602</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>7</v>
@@ -5858,10 +5858,10 @@
     </row>
     <row r="87" spans="1:23" ht="15.75" customHeight="1">
       <c r="A87" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>14</v>
@@ -5870,16 +5870,16 @@
         <v>3</v>
       </c>
       <c r="E87" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F87" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="G87" s="4">
         <v>2405</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>7</v>
@@ -5903,26 +5903,26 @@
     </row>
     <row r="88" spans="1:23" ht="15.75" customHeight="1">
       <c r="A88" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="C88" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <v>2302</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>7</v>
@@ -5946,26 +5946,26 @@
     </row>
     <row r="89" spans="1:23" ht="15.75" customHeight="1">
       <c r="A89" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="C89" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>7</v>
@@ -5989,28 +5989,28 @@
     </row>
     <row r="90" spans="1:23" ht="15.75" customHeight="1">
       <c r="A90" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="C90" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E90" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="G90" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="G90" s="8" t="s">
-        <v>289</v>
-      </c>
       <c r="H90" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>7</v>
@@ -6034,10 +6034,10 @@
     </row>
     <row r="91" spans="1:23" ht="15.75" customHeight="1">
       <c r="A91" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>2</v>
@@ -6046,14 +6046,14 @@
         <v>3</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <v>5202</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>7</v>
@@ -6077,26 +6077,26 @@
     </row>
     <row r="92" spans="1:23" ht="15.75" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>7</v>
@@ -6120,26 +6120,26 @@
     </row>
     <row r="93" spans="1:23" ht="15.75" customHeight="1">
       <c r="A93" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>298</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>7</v>
@@ -6163,10 +6163,10 @@
     </row>
     <row r="94" spans="1:23" ht="14" customHeight="1">
       <c r="A94" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>2</v>
@@ -6175,14 +6175,14 @@
         <v>3</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <v>2404</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I94" s="4" t="s">
         <v>7</v>
@@ -6205,27 +6205,27 @@
       <c r="W94" s="1"/>
     </row>
     <row r="95" spans="1:23" ht="15" customHeight="1">
-      <c r="A95" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="A95" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C95" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1" t="s">
+      <c r="D95" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E95" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>374</v>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="H95" s="15" t="s">
+        <v>373</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>7</v>
@@ -6248,27 +6248,27 @@
       <c r="W95" s="1"/>
     </row>
     <row r="96" spans="1:23" ht="15" customHeight="1">
-      <c r="A96" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="A96" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E96" s="15" t="s">
+      <c r="B96" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1" t="s">
+      <c r="C96" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E96" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>374</v>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="H96" s="15" t="s">
+        <v>373</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>7</v>
@@ -6291,27 +6291,27 @@
       <c r="W96" s="1"/>
     </row>
     <row r="97" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A97" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="A97" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E97" s="1" t="s">
+      <c r="B97" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1" t="s">
+      <c r="C97" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E97" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="F97" s="15"/>
+      <c r="G97" s="15" t="s">
         <v>378</v>
+      </c>
+      <c r="H97" s="15" t="s">
+        <v>377</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>7</v>
@@ -6334,27 +6334,27 @@
       <c r="W97" s="1"/>
     </row>
     <row r="98" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A98" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="A98" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E98" s="15" t="s">
+      <c r="B98" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1" t="s">
+      <c r="C98" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E98" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="F98" s="15"/>
+      <c r="G98" s="15" t="s">
         <v>374</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>373</v>
       </c>
       <c r="I98" s="4" t="s">
         <v>7</v>
@@ -6377,27 +6377,27 @@
       <c r="W98" s="1"/>
     </row>
     <row r="99" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A99" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="A99" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E99" s="15" t="s">
+      <c r="B99" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1" t="s">
+      <c r="C99" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E99" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="F99" s="15"/>
+      <c r="G99" s="15" t="s">
         <v>370</v>
+      </c>
+      <c r="H99" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="I99" s="4" t="s">
         <v>7</v>
@@ -6420,27 +6420,27 @@
       <c r="W99" s="1"/>
     </row>
     <row r="100" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A100" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="A100" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E100" s="15" t="s">
+      <c r="B100" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1" t="s">
+      <c r="C100" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E100" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="F100" s="15"/>
+      <c r="G100" s="15" t="s">
         <v>366</v>
+      </c>
+      <c r="H100" s="15" t="s">
+        <v>365</v>
       </c>
       <c r="I100" s="4" t="s">
         <v>7</v>
@@ -6463,27 +6463,27 @@
       <c r="W100" s="1"/>
     </row>
     <row r="101" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A101" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="A101" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E101" s="15" t="s">
+      <c r="B101" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1" t="s">
+      <c r="C101" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E101" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="H101" s="1" t="s">
-        <v>359</v>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>358</v>
       </c>
       <c r="I101" s="4" t="s">
         <v>7</v>
@@ -6506,27 +6506,27 @@
       <c r="W101" s="1"/>
     </row>
     <row r="102" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A102" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="A102" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E102" s="15" t="s">
+      <c r="B102" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1" t="s">
+      <c r="C102" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E102" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="F102" s="15"/>
+      <c r="G102" s="15" t="s">
         <v>359</v>
+      </c>
+      <c r="H102" s="15" t="s">
+        <v>358</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>7</v>
@@ -6549,27 +6549,27 @@
       <c r="W102" s="1"/>
     </row>
     <row r="103" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A103" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="A103" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E103" s="15" t="s">
+      <c r="B103" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1" t="s">
+      <c r="C103" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E103" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="F103" s="15"/>
+      <c r="G103" s="15" t="s">
         <v>355</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>354</v>
       </c>
       <c r="I103" s="4" t="s">
         <v>7</v>
@@ -6592,30 +6592,30 @@
       <c r="W103" s="1"/>
     </row>
     <row r="104" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A104" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B104" s="1" t="s">
+      <c r="A104" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E104" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E104" s="15" t="s">
+      <c r="F104" s="15"/>
+      <c r="G104" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H104" s="1" t="s">
+      <c r="H104" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I104" s="15" t="s">
         <v>309</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="J104" s="4" t="s">
         <v>8</v>
@@ -6635,30 +6635,30 @@
       <c r="W104" s="1"/>
     </row>
     <row r="105" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A105" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="A105" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="E105" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="F105" s="15"/>
+      <c r="G105" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="E105" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1" t="s">
+      <c r="H105" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>310</v>
+      <c r="I105" s="15" t="s">
+        <v>309</v>
       </c>
       <c r="J105" s="4" t="s">
         <v>8</v>
@@ -6678,32 +6678,32 @@
       <c r="W105" s="1"/>
     </row>
     <row r="106" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A106" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B106" s="1" t="s">
+      <c r="A106" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D106" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="E106" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1" t="s">
+      <c r="H106" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J106" s="16" t="s">
+      <c r="I106" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="J106" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K106" s="1"/>
@@ -6721,32 +6721,32 @@
       <c r="W106" s="1"/>
     </row>
     <row r="107" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B107" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="E107" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E107" s="15" t="s">
+      <c r="F107" s="15"/>
+      <c r="G107" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1" t="s">
+      <c r="H107" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J107" s="16" t="s">
+      <c r="I107" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="J107" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K107" s="1"/>
